--- a/geo mean/20180531_SF_p8_WTKO.xlsx
+++ b/geo mean/20180531_SF_p8_WTKO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\Post Grad\sam\geo mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4FAECA-87B0-4B72-9814-FC4C42A4802D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2256C65A-8378-4C4A-9256-98D46129D8DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="465" windowWidth="27735" windowHeight="15315" activeTab="5" xr2:uid="{15571FCD-40CC-4F2A-BB17-22B91BA72262}"/>
   </bookViews>
@@ -21116,8 +21116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE2277-235C-1D46-BA13-EBA40A912466}">
   <dimension ref="B1:R374"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37076,8 +37076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11C26D-3B4A-2243-BA28-CE827CABB82A}">
   <dimension ref="B1:R391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="P400" sqref="P400"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
